--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Clcf1-Crlf1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Clcf1-Crlf1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.672484</v>
+        <v>1.7872655</v>
       </c>
       <c r="H2">
-        <v>7.344968</v>
+        <v>3.574531</v>
       </c>
       <c r="I2">
-        <v>0.16941414656804</v>
+        <v>0.101191370732167</v>
       </c>
       <c r="J2">
-        <v>0.139073352017148</v>
+        <v>0.07984252496841394</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.3097005</v>
+        <v>0.4287225</v>
       </c>
       <c r="N2">
-        <v>0.619401</v>
+        <v>0.857445</v>
       </c>
       <c r="O2">
-        <v>0.02974992333587455</v>
+        <v>0.04766385615009357</v>
       </c>
       <c r="P2">
-        <v>0.02626282361701589</v>
+        <v>0.04112453143803989</v>
       </c>
       <c r="Q2">
-        <v>1.137370131042</v>
+        <v>0.76624093332375</v>
       </c>
       <c r="R2">
-        <v>4.549480524168</v>
+        <v>3.064963733295</v>
       </c>
       <c r="S2">
-        <v>0.005040057872411805</v>
+        <v>0.004823170938208796</v>
       </c>
       <c r="T2">
-        <v>0.003652458913853518</v>
+        <v>0.003283486428156024</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.672484</v>
+        <v>1.7872655</v>
       </c>
       <c r="H3">
-        <v>7.344968</v>
+        <v>3.574531</v>
       </c>
       <c r="I3">
-        <v>0.16941414656804</v>
+        <v>0.101191370732167</v>
       </c>
       <c r="J3">
-        <v>0.139073352017148</v>
+        <v>0.07984252496841394</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>8.176179000000001</v>
       </c>
       <c r="O3">
-        <v>0.2618020726803126</v>
+        <v>0.3029995857564555</v>
       </c>
       <c r="P3">
-        <v>0.346672909695253</v>
+        <v>0.3921435547802385</v>
       </c>
       <c r="Q3">
-        <v>10.008962186212</v>
+        <v>4.871000882841501</v>
       </c>
       <c r="R3">
-        <v>60.05377311727201</v>
+        <v>29.226005297049</v>
       </c>
       <c r="S3">
-        <v>0.04435297471287914</v>
+        <v>0.03066094341397451</v>
       </c>
       <c r="T3">
-        <v>0.04821296360485688</v>
+        <v>0.0313097315637438</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.672484</v>
+        <v>1.7872655</v>
       </c>
       <c r="H4">
-        <v>7.344968</v>
+        <v>3.574531</v>
       </c>
       <c r="I4">
-        <v>0.16941414656804</v>
+        <v>0.101191370732167</v>
       </c>
       <c r="J4">
-        <v>0.139073352017148</v>
+        <v>0.07984252496841394</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.3359755</v>
+        <v>5.7054395</v>
       </c>
       <c r="N4">
-        <v>14.671951</v>
+        <v>11.410879</v>
       </c>
       <c r="O4">
-        <v>0.7046960166963049</v>
+        <v>0.6343106498983883</v>
       </c>
       <c r="P4">
-        <v>0.6220959624387108</v>
+        <v>0.5472853094614456</v>
       </c>
       <c r="Q4">
-        <v>26.941252648142</v>
+        <v>10.19713518068725</v>
       </c>
       <c r="R4">
-        <v>107.765010592568</v>
+        <v>40.788540722749</v>
       </c>
       <c r="S4">
-        <v>0.1193854742585018</v>
+        <v>0.06418676413322959</v>
       </c>
       <c r="T4">
-        <v>0.0865169707726853</v>
+        <v>0.04369664098552162</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.672484</v>
+        <v>1.7872655</v>
       </c>
       <c r="H5">
-        <v>7.344968</v>
+        <v>3.574531</v>
       </c>
       <c r="I5">
-        <v>0.16941414656804</v>
+        <v>0.101191370732167</v>
       </c>
       <c r="J5">
-        <v>0.139073352017148</v>
+        <v>0.07984252496841394</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.03905866666666667</v>
+        <v>0.1351536666666667</v>
       </c>
       <c r="N5">
-        <v>0.117176</v>
+        <v>0.405461</v>
       </c>
       <c r="O5">
-        <v>0.003751987287507809</v>
+        <v>0.01502590819506253</v>
       </c>
       <c r="P5">
-        <v>0.00496830424902035</v>
+        <v>0.01944660432027604</v>
       </c>
       <c r="Q5">
-        <v>0.1434423283946667</v>
+        <v>0.2415554856318333</v>
       </c>
       <c r="R5">
-        <v>0.860653970368</v>
+        <v>1.449332913791</v>
       </c>
       <c r="S5">
-        <v>0.0006356397242472707</v>
+        <v>0.001520492246754079</v>
       </c>
       <c r="T5">
-        <v>0.0006909587257522993</v>
+        <v>0.001552665990992507</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>16.585895</v>
       </c>
       <c r="I6">
-        <v>0.2550394815872238</v>
+        <v>0.3130199831101003</v>
       </c>
       <c r="J6">
-        <v>0.3140457540256751</v>
+        <v>0.3704709053190453</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>0.5</v>
       </c>
       <c r="M6">
-        <v>0.3097005</v>
+        <v>0.4287225</v>
       </c>
       <c r="N6">
-        <v>0.619401</v>
+        <v>0.857445</v>
       </c>
       <c r="O6">
-        <v>0.02974992333587455</v>
+        <v>0.04766385615009357</v>
       </c>
       <c r="P6">
-        <v>0.02626282361701589</v>
+        <v>0.04112453143803989</v>
       </c>
       <c r="Q6">
-        <v>1.7122199914825</v>
+        <v>2.3702487897125</v>
       </c>
       <c r="R6">
-        <v>10.273319948895</v>
+        <v>14.221492738275</v>
       </c>
       <c r="S6">
-        <v>0.007587405024841096</v>
+        <v>0.01491973944706454</v>
       </c>
       <c r="T6">
-        <v>0.008247728245649061</v>
+        <v>0.01523544239267218</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>16.585895</v>
       </c>
       <c r="I7">
-        <v>0.2550394815872238</v>
+        <v>0.3130199831101003</v>
       </c>
       <c r="J7">
-        <v>0.3140457540256751</v>
+        <v>0.3704709053190453</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -877,10 +877,10 @@
         <v>8.176179000000001</v>
       </c>
       <c r="O7">
-        <v>0.2618020726803126</v>
+        <v>0.3029995857564555</v>
       </c>
       <c r="P7">
-        <v>0.346672909695253</v>
+        <v>0.3921435547802385</v>
       </c>
       <c r="Q7">
         <v>15.06769404391167</v>
@@ -889,10 +889,10 @@
         <v>135.609246395205</v>
       </c>
       <c r="S7">
-        <v>0.06676986489484761</v>
+        <v>0.09484492521585307</v>
       </c>
       <c r="T7">
-        <v>0.1088711553255205</v>
+        <v>0.1452777777544636</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>16.585895</v>
       </c>
       <c r="I8">
-        <v>0.2550394815872238</v>
+        <v>0.3130199831101003</v>
       </c>
       <c r="J8">
-        <v>0.3140457540256751</v>
+        <v>0.3704709053190453</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.3359755</v>
+        <v>5.7054395</v>
       </c>
       <c r="N8">
-        <v>14.671951</v>
+        <v>11.410879</v>
       </c>
       <c r="O8">
-        <v>0.7046960166963049</v>
+        <v>0.6343106498983883</v>
       </c>
       <c r="P8">
-        <v>0.6220959624387108</v>
+        <v>0.5472853094614456</v>
       </c>
       <c r="Q8">
-        <v>40.55790645519083</v>
+        <v>31.54327349195083</v>
       </c>
       <c r="R8">
-        <v>243.347438731145</v>
+        <v>189.259640951705</v>
       </c>
       <c r="S8">
-        <v>0.1797253067748072</v>
+        <v>0.1985519089177502</v>
       </c>
       <c r="T8">
-        <v>0.195366595600393</v>
+        <v>0.2027532840639956</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,10 +983,10 @@
         <v>16.585895</v>
       </c>
       <c r="I9">
-        <v>0.2550394815872238</v>
+        <v>0.3130199831101003</v>
       </c>
       <c r="J9">
-        <v>0.3140457540256751</v>
+        <v>0.3704709053190453</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,28 +995,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.03905866666666667</v>
+        <v>0.1351536666666667</v>
       </c>
       <c r="N9">
-        <v>0.117176</v>
+        <v>0.405461</v>
       </c>
       <c r="O9">
-        <v>0.003751987287507809</v>
+        <v>0.01502590819506253</v>
       </c>
       <c r="P9">
-        <v>0.00496830424902035</v>
+        <v>0.01944660432027604</v>
       </c>
       <c r="Q9">
-        <v>0.2159409813911111</v>
+        <v>0.7472148413994445</v>
       </c>
       <c r="R9">
-        <v>1.94346883252</v>
+        <v>6.724933572595001</v>
       </c>
       <c r="S9">
-        <v>0.0009569048927278455</v>
+        <v>0.004703409529432392</v>
       </c>
       <c r="T9">
-        <v>0.001560274854112561</v>
+        <v>0.007204401107913923</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,22 +1033,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1.120594</v>
+        <v>2.754647666666667</v>
       </c>
       <c r="H10">
-        <v>3.361782</v>
+        <v>8.263943000000001</v>
       </c>
       <c r="I10">
-        <v>0.05169375173840545</v>
+        <v>0.1559625994426488</v>
       </c>
       <c r="J10">
-        <v>0.06365368664518507</v>
+        <v>0.1845875935374598</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1057,28 +1057,28 @@
         <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.3097005</v>
+        <v>0.4287225</v>
       </c>
       <c r="N10">
-        <v>0.619401</v>
+        <v>0.857445</v>
       </c>
       <c r="O10">
-        <v>0.02974992333587455</v>
+        <v>0.04766385615009357</v>
       </c>
       <c r="P10">
-        <v>0.02626282361701589</v>
+        <v>0.04112453143803989</v>
       </c>
       <c r="Q10">
-        <v>0.3470485220969999</v>
+        <v>1.1809794342725</v>
       </c>
       <c r="R10">
-        <v>2.082291132582</v>
+        <v>7.085876605635001</v>
       </c>
       <c r="S10">
-        <v>0.001537885151161294</v>
+        <v>0.007433778904629078</v>
       </c>
       <c r="T10">
-        <v>0.001671725544935295</v>
+        <v>0.007591078293503396</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,22 +1095,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>1.120594</v>
+        <v>2.754647666666667</v>
       </c>
       <c r="H11">
-        <v>3.361782</v>
+        <v>8.263943000000001</v>
       </c>
       <c r="I11">
-        <v>0.05169375173840545</v>
+        <v>0.1559625994426488</v>
       </c>
       <c r="J11">
-        <v>0.06365368664518507</v>
+        <v>0.1845875935374598</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1125,22 +1125,22 @@
         <v>8.176179000000001</v>
       </c>
       <c r="O11">
-        <v>0.2618020726803126</v>
+        <v>0.3029995857564555</v>
       </c>
       <c r="P11">
-        <v>0.346672909695253</v>
+        <v>0.3921435547802385</v>
       </c>
       <c r="Q11">
-        <v>3.054059043442</v>
+        <v>7.507497468199669</v>
       </c>
       <c r="R11">
-        <v>27.486531390978</v>
+        <v>67.56747721379702</v>
       </c>
       <c r="S11">
-        <v>0.01353353134973606</v>
+        <v>0.04725660302462258</v>
       </c>
       <c r="T11">
-        <v>0.02206700876211617</v>
+        <v>0.07238483509810928</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,22 +1157,22 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>1.120594</v>
+        <v>2.754647666666667</v>
       </c>
       <c r="H12">
-        <v>3.361782</v>
+        <v>8.263943000000001</v>
       </c>
       <c r="I12">
-        <v>0.05169375173840545</v>
+        <v>0.1559625994426488</v>
       </c>
       <c r="J12">
-        <v>0.06365368664518507</v>
+        <v>0.1845875935374598</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.3359755</v>
+        <v>5.7054395</v>
       </c>
       <c r="N12">
-        <v>14.671951</v>
+        <v>11.410879</v>
       </c>
       <c r="O12">
-        <v>0.7046960166963049</v>
+        <v>0.6343106498983883</v>
       </c>
       <c r="P12">
-        <v>0.6220959624387108</v>
+        <v>0.5472853094614456</v>
       </c>
       <c r="Q12">
-        <v>8.220650129447</v>
+        <v>15.71647560598283</v>
       </c>
       <c r="R12">
-        <v>49.323900776682</v>
+        <v>94.298853635897</v>
       </c>
       <c r="S12">
-        <v>0.036428380938142</v>
+        <v>0.09892873781230857</v>
       </c>
       <c r="T12">
-        <v>0.03959870145630852</v>
+        <v>0.1010220782518922</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,25 +1216,25 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>1.120594</v>
+        <v>2.754647666666667</v>
       </c>
       <c r="H13">
-        <v>3.361782</v>
+        <v>8.263943000000001</v>
       </c>
       <c r="I13">
-        <v>0.05169375173840545</v>
+        <v>0.1559625994426488</v>
       </c>
       <c r="J13">
-        <v>0.06365368664518507</v>
+        <v>0.1845875935374598</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1243,28 +1243,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.03905866666666667</v>
+        <v>0.1351536666666667</v>
       </c>
       <c r="N13">
-        <v>0.117176</v>
+        <v>0.405461</v>
       </c>
       <c r="O13">
-        <v>0.003751987287507809</v>
+        <v>0.01502590819506253</v>
       </c>
       <c r="P13">
-        <v>0.00496830424902035</v>
+        <v>0.01944660432027604</v>
       </c>
       <c r="Q13">
-        <v>0.04376890751466666</v>
+        <v>0.3723007325247779</v>
       </c>
       <c r="R13">
-        <v>0.393920167632</v>
+        <v>3.350706592723001</v>
       </c>
       <c r="S13">
-        <v>0.000193954299366082</v>
+        <v>0.002343479701088552</v>
       </c>
       <c r="T13">
-        <v>0.0003162508818250829</v>
+        <v>0.003589601893954925</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.5465465</v>
+        <v>6.4296675</v>
       </c>
       <c r="H14">
-        <v>17.093093</v>
+        <v>12.859335</v>
       </c>
       <c r="I14">
-        <v>0.3942579140988958</v>
+        <v>0.3640348161350763</v>
       </c>
       <c r="J14">
-        <v>0.3236492983837163</v>
+        <v>0.2872325840270232</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1305,28 +1305,28 @@
         <v>0.5</v>
       </c>
       <c r="M14">
-        <v>0.3097005</v>
+        <v>0.4287225</v>
       </c>
       <c r="N14">
-        <v>0.619401</v>
+        <v>0.857445</v>
       </c>
       <c r="O14">
-        <v>0.02974992333587455</v>
+        <v>0.04766385615009357</v>
       </c>
       <c r="P14">
-        <v>0.02626282361701589</v>
+        <v>0.04112453143803989</v>
       </c>
       <c r="Q14">
-        <v>2.64686972432325</v>
+        <v>2.75654312476875</v>
       </c>
       <c r="R14">
-        <v>10.587478897293</v>
+        <v>11.026172499075</v>
       </c>
       <c r="S14">
-        <v>0.01172914271900397</v>
+        <v>0.01735130310988804</v>
       </c>
       <c r="T14">
-        <v>0.008499944437222486</v>
+        <v>0.01181230543184875</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.5465465</v>
+        <v>6.4296675</v>
       </c>
       <c r="H15">
-        <v>17.093093</v>
+        <v>12.859335</v>
       </c>
       <c r="I15">
-        <v>0.3942579140988958</v>
+        <v>0.3640348161350763</v>
       </c>
       <c r="J15">
-        <v>0.3236492983837163</v>
+        <v>0.2872325840270232</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>8.176179000000001</v>
       </c>
       <c r="O15">
-        <v>0.2618020726803126</v>
+        <v>0.3029995857564555</v>
       </c>
       <c r="P15">
-        <v>0.346672909695253</v>
+        <v>0.3921435547802385</v>
       </c>
       <c r="Q15">
-        <v>23.2926980052745</v>
+        <v>17.5233707968275</v>
       </c>
       <c r="R15">
-        <v>139.756188031647</v>
+        <v>105.140224780965</v>
       </c>
       <c r="S15">
-        <v>0.1032175390817076</v>
+        <v>0.1103023984898556</v>
       </c>
       <c r="T15">
-        <v>0.1122004439915101</v>
+        <v>0.1126364065490705</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.5465465</v>
+        <v>6.4296675</v>
       </c>
       <c r="H16">
-        <v>17.093093</v>
+        <v>12.859335</v>
       </c>
       <c r="I16">
-        <v>0.3942579140988958</v>
+        <v>0.3640348161350763</v>
       </c>
       <c r="J16">
-        <v>0.3236492983837163</v>
+        <v>0.2872325840270232</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.3359755</v>
+        <v>5.7054395</v>
       </c>
       <c r="N16">
-        <v>14.671951</v>
+        <v>11.410879</v>
       </c>
       <c r="O16">
-        <v>0.7046960166963049</v>
+        <v>0.6343106498983883</v>
       </c>
       <c r="P16">
-        <v>0.6220959624387108</v>
+        <v>0.5472853094614456</v>
       </c>
       <c r="Q16">
-        <v>62.69725573361075</v>
+        <v>36.68407892636625</v>
       </c>
       <c r="R16">
-        <v>250.789022934443</v>
+        <v>146.736315705465</v>
       </c>
       <c r="S16">
-        <v>0.2778319816164858</v>
+        <v>0.2309111608082805</v>
       </c>
       <c r="T16">
-        <v>0.2013409217706315</v>
+        <v>0.1571981736366401</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.5465465</v>
+        <v>6.4296675</v>
       </c>
       <c r="H17">
-        <v>17.093093</v>
+        <v>12.859335</v>
       </c>
       <c r="I17">
-        <v>0.3942579140988958</v>
+        <v>0.3640348161350763</v>
       </c>
       <c r="J17">
-        <v>0.3236492983837163</v>
+        <v>0.2872325840270232</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1491,28 +1491,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.03905866666666667</v>
+        <v>0.1351536666666667</v>
       </c>
       <c r="N17">
-        <v>0.117176</v>
+        <v>0.405461</v>
       </c>
       <c r="O17">
-        <v>0.003751987287507809</v>
+        <v>0.01502590819506253</v>
       </c>
       <c r="P17">
-        <v>0.00496830424902035</v>
+        <v>0.01944660432027604</v>
       </c>
       <c r="Q17">
-        <v>0.3338167108946666</v>
+        <v>0.8689931380725</v>
       </c>
       <c r="R17">
-        <v>2.002900265368</v>
+        <v>5.213958828435</v>
       </c>
       <c r="S17">
-        <v>0.001479250681698403</v>
+        <v>0.005469953727052126</v>
       </c>
       <c r="T17">
-        <v>0.001607988184352273</v>
+        <v>0.005585698409463962</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>20</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>1.317076</v>
+        <v>0.4594446666666667</v>
       </c>
       <c r="H18">
-        <v>3.951228</v>
+        <v>1.378334</v>
       </c>
       <c r="I18">
-        <v>0.06075759799232559</v>
+        <v>0.02601283110740041</v>
       </c>
       <c r="J18">
-        <v>0.07481455637982515</v>
+        <v>0.03078716251441486</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1553,28 +1553,28 @@
         <v>0.5</v>
       </c>
       <c r="M18">
-        <v>0.3097005</v>
+        <v>0.4287225</v>
       </c>
       <c r="N18">
-        <v>0.619401</v>
+        <v>0.857445</v>
       </c>
       <c r="O18">
-        <v>0.02974992333587455</v>
+        <v>0.04766385615009357</v>
       </c>
       <c r="P18">
-        <v>0.02626282361701589</v>
+        <v>0.04112453143803989</v>
       </c>
       <c r="Q18">
-        <v>0.407899095738</v>
+        <v>0.196974266105</v>
       </c>
       <c r="R18">
-        <v>2.447394574428</v>
+        <v>1.18184559663</v>
       </c>
       <c r="S18">
-        <v>0.001807533882343572</v>
+        <v>0.001239871839959812</v>
       </c>
       <c r="T18">
-        <v>0.001964841498188639</v>
+        <v>0.001266107632712097</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>21</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>1.317076</v>
+        <v>0.4594446666666667</v>
       </c>
       <c r="H19">
-        <v>3.951228</v>
+        <v>1.378334</v>
       </c>
       <c r="I19">
-        <v>0.06075759799232559</v>
+        <v>0.02601283110740041</v>
       </c>
       <c r="J19">
-        <v>0.07481455637982515</v>
+        <v>0.03078716251441486</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1621,22 +1621,22 @@
         <v>8.176179000000001</v>
       </c>
       <c r="O19">
-        <v>0.2618020726803126</v>
+        <v>0.3029995857564555</v>
       </c>
       <c r="P19">
-        <v>0.346672909695253</v>
+        <v>0.3921435547802385</v>
       </c>
       <c r="Q19">
-        <v>3.589549710868</v>
+        <v>1.252167278420667</v>
       </c>
       <c r="R19">
-        <v>32.30594739781201</v>
+        <v>11.269505505786</v>
       </c>
       <c r="S19">
-        <v>0.01590646508546804</v>
+        <v>0.007881877049894964</v>
       </c>
       <c r="T19">
-        <v>0.02593617994775354</v>
+        <v>0.01207298734999955</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>1.317076</v>
+        <v>0.4594446666666667</v>
       </c>
       <c r="H20">
-        <v>3.951228</v>
+        <v>1.378334</v>
       </c>
       <c r="I20">
-        <v>0.06075759799232559</v>
+        <v>0.02601283110740041</v>
       </c>
       <c r="J20">
-        <v>0.07481455637982515</v>
+        <v>0.03078716251441486</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.3359755</v>
+        <v>5.7054395</v>
       </c>
       <c r="N20">
-        <v>14.671951</v>
+        <v>11.410879</v>
       </c>
       <c r="O20">
-        <v>0.7046960166963049</v>
+        <v>0.6343106498983883</v>
       </c>
       <c r="P20">
-        <v>0.6220959624387108</v>
+        <v>0.5472853094614456</v>
       </c>
       <c r="Q20">
-        <v>9.662037267637999</v>
+        <v>2.621333749264333</v>
       </c>
       <c r="R20">
-        <v>57.972223605828</v>
+        <v>15.728002495586</v>
       </c>
       <c r="S20">
-        <v>0.04281563728922725</v>
+        <v>0.01650021580543217</v>
       </c>
       <c r="T20">
-        <v>0.04654183345553252</v>
+        <v>0.01684936176414135</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,25 +1712,25 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>1.317076</v>
+        <v>0.4594446666666667</v>
       </c>
       <c r="H21">
-        <v>3.951228</v>
+        <v>1.378334</v>
       </c>
       <c r="I21">
-        <v>0.06075759799232559</v>
+        <v>0.02601283110740041</v>
       </c>
       <c r="J21">
-        <v>0.07481455637982515</v>
+        <v>0.03078716251441486</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1739,28 +1739,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.03905866666666667</v>
+        <v>0.1351536666666667</v>
       </c>
       <c r="N21">
-        <v>0.117176</v>
+        <v>0.405461</v>
       </c>
       <c r="O21">
-        <v>0.003751987287507809</v>
+        <v>0.01502590819506253</v>
       </c>
       <c r="P21">
-        <v>0.00496830424902035</v>
+        <v>0.01944660432027604</v>
       </c>
       <c r="Q21">
-        <v>0.05144323245866666</v>
+        <v>0.06209563133044445</v>
       </c>
       <c r="R21">
-        <v>0.462989092128</v>
+        <v>0.558860681974</v>
       </c>
       <c r="S21">
-        <v>0.0002279617352867156</v>
+        <v>0.0003908664121134654</v>
       </c>
       <c r="T21">
-        <v>0.0003717014783504578</v>
+        <v>0.0005987057675618607</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.49222</v>
+        <v>0.7025753333333333</v>
       </c>
       <c r="H22">
-        <v>4.47666</v>
+        <v>2.107726</v>
       </c>
       <c r="I22">
-        <v>0.0688371080151093</v>
+        <v>0.03977839947260725</v>
       </c>
       <c r="J22">
-        <v>0.08476335254845027</v>
+        <v>0.04707922963364292</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -1801,28 +1801,28 @@
         <v>0.5</v>
       </c>
       <c r="M22">
-        <v>0.3097005</v>
+        <v>0.4287225</v>
       </c>
       <c r="N22">
-        <v>0.619401</v>
+        <v>0.857445</v>
       </c>
       <c r="O22">
-        <v>0.02974992333587455</v>
+        <v>0.04766385615009357</v>
       </c>
       <c r="P22">
-        <v>0.02626282361701589</v>
+        <v>0.04112453143803989</v>
       </c>
       <c r="Q22">
-        <v>0.4621412801099999</v>
+        <v>0.301209853345</v>
       </c>
       <c r="R22">
-        <v>2.77284768066</v>
+        <v>1.80725912007</v>
       </c>
       <c r="S22">
-        <v>0.002047898686112817</v>
+        <v>0.00189599191034331</v>
       </c>
       <c r="T22">
-        <v>0.002226124977166884</v>
+        <v>0.001936111259147448</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.49222</v>
+        <v>0.7025753333333333</v>
       </c>
       <c r="H23">
-        <v>4.47666</v>
+        <v>2.107726</v>
       </c>
       <c r="I23">
-        <v>0.0688371080151093</v>
+        <v>0.03977839947260725</v>
       </c>
       <c r="J23">
-        <v>0.08476335254845027</v>
+        <v>0.04707922963364292</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,22 +1869,22 @@
         <v>8.176179000000001</v>
       </c>
       <c r="O23">
-        <v>0.2618020726803126</v>
+        <v>0.3029995857564555</v>
       </c>
       <c r="P23">
-        <v>0.346672909695253</v>
+        <v>0.3921435547802385</v>
       </c>
       <c r="Q23">
-        <v>4.06688594246</v>
+        <v>1.914793895439334</v>
       </c>
       <c r="R23">
-        <v>36.60197348214</v>
+        <v>17.233145058954</v>
       </c>
       <c r="S23">
-        <v>0.01802169755567418</v>
+        <v>0.0120528385622548</v>
       </c>
       <c r="T23">
-        <v>0.02938515806349579</v>
+        <v>0.01846181646485188</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.49222</v>
+        <v>0.7025753333333333</v>
       </c>
       <c r="H24">
-        <v>4.47666</v>
+        <v>2.107726</v>
       </c>
       <c r="I24">
-        <v>0.0688371080151093</v>
+        <v>0.03977839947260725</v>
       </c>
       <c r="J24">
-        <v>0.08476335254845027</v>
+        <v>0.04707922963364292</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.3359755</v>
+        <v>5.7054395</v>
       </c>
       <c r="N24">
-        <v>14.671951</v>
+        <v>11.410879</v>
       </c>
       <c r="O24">
-        <v>0.7046960166963049</v>
+        <v>0.6343106498983883</v>
       </c>
       <c r="P24">
-        <v>0.6220959624387108</v>
+        <v>0.5472853094614456</v>
       </c>
       <c r="Q24">
-        <v>10.94688936061</v>
+        <v>4.008501058525667</v>
       </c>
       <c r="R24">
-        <v>65.68133616365999</v>
+        <v>24.051006351154</v>
       </c>
       <c r="S24">
-        <v>0.0485092358191408</v>
+        <v>0.02523186242138721</v>
       </c>
       <c r="T24">
-        <v>0.05273093938315992</v>
+        <v>0.02576577075925472</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.49222</v>
+        <v>0.7025753333333333</v>
       </c>
       <c r="H25">
-        <v>4.47666</v>
+        <v>2.107726</v>
       </c>
       <c r="I25">
-        <v>0.0688371080151093</v>
+        <v>0.03977839947260725</v>
       </c>
       <c r="J25">
-        <v>0.08476335254845027</v>
+        <v>0.04707922963364292</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -1987,28 +1987,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.03905866666666667</v>
+        <v>0.1351536666666667</v>
       </c>
       <c r="N25">
-        <v>0.117176</v>
+        <v>0.405461</v>
       </c>
       <c r="O25">
-        <v>0.003751987287507809</v>
+        <v>0.01502590819506253</v>
       </c>
       <c r="P25">
-        <v>0.00496830424902035</v>
+        <v>0.01944660432027604</v>
       </c>
       <c r="Q25">
-        <v>0.05828412357333333</v>
+        <v>0.09495563240955555</v>
       </c>
       <c r="R25">
-        <v>0.52455711216</v>
+        <v>0.8546006916860001</v>
       </c>
       <c r="S25">
-        <v>0.000258275954181492</v>
+        <v>0.0005977065786219205</v>
       </c>
       <c r="T25">
-        <v>0.0004211301246276754</v>
+        <v>0.0009155311503888683</v>
       </c>
     </row>
   </sheetData>
